--- a/src/resources/excel/Title.xlsx
+++ b/src/resources/excel/Title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D21D5-AFBE-472D-A4E3-619C619B7634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC01DFF-25BF-40B0-A83D-EE9A53A906EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>コンストラクタの引数1</t>
     <rPh sb="8" eb="10">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>programs.example.ClassName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -211,6 +207,32 @@
     <rPh sb="0" eb="1">
       <t>ハバ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>programs.controller.TitleController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cardframe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル表示変更する？</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleClick</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95933FD-E51D-48F3-88FE-66E5CFB34F19}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -720,61 +744,64 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -787,73 +814,243 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>300</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>320</v>
+      </c>
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>480</v>
+      </c>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>480</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0427-2CFE-4D4A-8B06-EDE4E1281BCF}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.69921875" style="6" customWidth="1"/>
-    <col min="2" max="4" width="24.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69921875" style="4" customWidth="1"/>
+    <col min="2" max="5" width="24.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2" s="1">
+        <v>600</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/resources/excel/Title.xlsx
+++ b/src/resources/excel/Title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC01DFF-25BF-40B0-A83D-EE9A53A906EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9BE0B-BEFA-42F0-BCFB-16E0B021919D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>コンストラクタの引数1</t>
     <rPh sb="8" eb="10">
@@ -214,14 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cardframe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カーソル表示変更する？</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -233,6 +225,10 @@
   </si>
   <si>
     <t>TitleClick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -797,9 +793,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -843,7 +839,7 @@
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -867,122 +863,6 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>320</v>
-      </c>
-      <c r="D3" s="1">
-        <v>500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>480</v>
-      </c>
-      <c r="D4" s="1">
-        <v>500</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>320</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9">
-        <v>480</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -997,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0427-2CFE-4D4A-8B06-EDE4E1281BCF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1025,12 +905,12 @@
         <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
